--- a/Code/Output/Results.xlsx
+++ b/Code/Output/Results.xlsx
@@ -656,7 +656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,6 +710,39 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>7.719</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>48.843</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>3688</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Code/Output/Results.xlsx
+++ b/Code/Output/Results.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,17 +487,17 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>12.412</t>
+          <t>6.718</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>5.039</t>
+          <t>10.375</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>2842</t>
+          <t>8460</t>
         </is>
       </c>
     </row>
@@ -515,17 +515,17 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>4.310</t>
+          <t>4.328</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>0.454</t>
+          <t>7.402</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>1207</t>
+          <t>11370</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
@@ -545,17 +545,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5.158</t>
+          <t>8.174</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>62.348</t>
+          <t>68.362</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>44486</t>
+          <t>21303</t>
         </is>
       </c>
     </row>
@@ -566,24 +566,24 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7.285</t>
+          <t>5.034</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23.538</t>
+          <t>8.033</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>37182</t>
+          <t>6739</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
@@ -603,17 +603,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5.236</t>
+          <t>5.532</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5.891</t>
+          <t>13.647</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1160</t>
+          <t>11103</t>
         </is>
       </c>
     </row>
@@ -624,24 +624,82 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4.151</t>
+          <t>5.754</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>61.851</t>
+          <t>2.770</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29417</t>
+          <t>6621</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6.957</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>26.554</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8429</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4.295</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5.378</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6331</t>
         </is>
       </c>
     </row>
@@ -656,7 +714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -729,17 +787,112 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>7.719</t>
+          <t>8.889</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>48.843</t>
+          <t>11.288</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>3688</t>
+          <t>1531</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>7.039</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>7.484</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>1512</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16.362</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>22.228</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1746</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9.521</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>65.957</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4473</t>
         </is>
       </c>
     </row>

--- a/Code/Output/Results.xlsx
+++ b/Code/Output/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\my\Documents\Technion\2022-23\Winter 2022-23\Algorithmic Robot Motion Planning\Homeworks\HW#3\Code\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E291E56-8B6F-41DD-B46C-88995E345569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C72262E-45B0-448D-B095-26D280550F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>Ext. Mode</t>
   </si>
@@ -86,52 +86,25 @@
     <t>6739</t>
   </si>
   <si>
-    <t>5.532</t>
-  </si>
-  <si>
-    <t>13.647</t>
-  </si>
-  <si>
-    <t>11103</t>
-  </si>
-  <si>
-    <t>5.754</t>
-  </si>
-  <si>
-    <t>2.770</t>
-  </si>
-  <si>
-    <t>6621</t>
-  </si>
-  <si>
-    <t>6.957</t>
-  </si>
-  <si>
-    <t>26.554</t>
-  </si>
-  <si>
-    <t>8429</t>
-  </si>
-  <si>
-    <t>4.295</t>
-  </si>
-  <si>
-    <t>5.378</t>
-  </si>
-  <si>
-    <t>6331</t>
-  </si>
-  <si>
     <t>Coverage</t>
   </si>
   <si>
-    <t>13.441</t>
-  </si>
-  <si>
-    <t>8.556</t>
-  </si>
-  <si>
-    <t>1157</t>
+    <t>11.945</t>
+  </si>
+  <si>
+    <t>7.545</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>8.600</t>
+  </si>
+  <si>
+    <t>8.181</t>
+  </si>
+  <si>
+    <t>1615</t>
   </si>
   <si>
     <t>19.860</t>
@@ -150,15 +123,6 @@
   </si>
   <si>
     <t>1614</t>
-  </si>
-  <si>
-    <t>8.600</t>
-  </si>
-  <si>
-    <t>8.181</t>
-  </si>
-  <si>
-    <t>1615</t>
   </si>
 </sst>
 </file>
@@ -509,9 +473,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -621,86 +587,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -711,7 +597,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,7 +619,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -759,13 +645,13 @@
         <v>0.5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -782,13 +668,13 @@
         <v>0.5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -805,13 +691,13 @@
         <v>0.75</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -828,23 +714,14 @@
         <v>0.75</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>

--- a/Code/Output/Results.xlsx
+++ b/Code/Output/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\my\Documents\Technion\2022-23\Winter 2022-23\Algorithmic Robot Motion Planning\Homeworks\HW#3\Code\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C72262E-45B0-448D-B095-26D280550F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BD1B84-6CD0-47FE-8336-7F9F936BEA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4464" yWindow="7188" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MP" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>Ext. Mode</t>
   </si>
@@ -47,82 +47,10 @@
     <t>-</t>
   </si>
   <si>
-    <t>6.718</t>
-  </si>
-  <si>
-    <t>10.375</t>
-  </si>
-  <si>
-    <t>8460</t>
-  </si>
-  <si>
     <t>E2</t>
   </si>
   <si>
-    <t>4.328</t>
-  </si>
-  <si>
-    <t>7.402</t>
-  </si>
-  <si>
-    <t>11370</t>
-  </si>
-  <si>
-    <t>8.174</t>
-  </si>
-  <si>
-    <t>68.362</t>
-  </si>
-  <si>
-    <t>21303</t>
-  </si>
-  <si>
-    <t>5.034</t>
-  </si>
-  <si>
-    <t>8.033</t>
-  </si>
-  <si>
-    <t>6739</t>
-  </si>
-  <si>
     <t>Coverage</t>
-  </si>
-  <si>
-    <t>11.945</t>
-  </si>
-  <si>
-    <t>7.545</t>
-  </si>
-  <si>
-    <t>1101</t>
-  </si>
-  <si>
-    <t>8.600</t>
-  </si>
-  <si>
-    <t>8.181</t>
-  </si>
-  <si>
-    <t>1615</t>
-  </si>
-  <si>
-    <t>19.860</t>
-  </si>
-  <si>
-    <t>11.791</t>
-  </si>
-  <si>
-    <t>1430</t>
-  </si>
-  <si>
-    <t>15.478</t>
-  </si>
-  <si>
-    <t>17.145</t>
-  </si>
-  <si>
-    <t>1614</t>
   </si>
 </sst>
 </file>
@@ -163,12 +91,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -476,7 +407,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,19 +448,19 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
+      <c r="D2" s="2">
+        <v>6.8949999999999996</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8.2270000000000003</v>
+      </c>
+      <c r="F2" s="2">
+        <v>7559</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>0.05</v>
@@ -537,14 +468,14 @@
       <c r="C3" s="2">
         <v>0.5</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
+      <c r="D3" s="2">
+        <v>6.3769999999999998</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10.615</v>
+      </c>
+      <c r="F3" s="2">
+        <v>14523</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -557,19 +488,19 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
+      <c r="D4" s="3">
+        <v>8.1739999999999995</v>
+      </c>
+      <c r="E4" s="2">
+        <v>68.361999999999995</v>
+      </c>
+      <c r="F4" s="3">
+        <v>21303</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>0.2</v>
@@ -577,14 +508,14 @@
       <c r="C5" s="2">
         <v>0.5</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
+      <c r="D5" s="3">
+        <v>5.0339999999999998</v>
+      </c>
+      <c r="E5" s="3">
+        <v>8.0329999999999995</v>
+      </c>
+      <c r="F5" s="3">
+        <v>6739</v>
       </c>
     </row>
   </sheetData>
@@ -597,7 +528,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,7 +550,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -644,19 +575,19 @@
       <c r="D2" s="2">
         <v>0.5</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
+      <c r="E2" s="3">
+        <v>11.945</v>
+      </c>
+      <c r="F2" s="3">
+        <v>7.5449999999999999</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1101</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>0.05</v>
@@ -667,14 +598,14 @@
       <c r="D3" s="2">
         <v>0.5</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>27</v>
+      <c r="E3" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="F3" s="3">
+        <v>8.1809999999999992</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1615</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -690,19 +621,19 @@
       <c r="D4" s="2">
         <v>0.75</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
+      <c r="E4" s="3">
+        <v>19.86</v>
+      </c>
+      <c r="F4" s="3">
+        <v>11.791</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1430</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>0.05</v>
@@ -713,14 +644,14 @@
       <c r="D5" s="2">
         <v>0.75</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>33</v>
+      <c r="E5" s="3">
+        <v>15.478</v>
+      </c>
+      <c r="F5" s="3">
+        <v>17.145</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1614</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
